--- a/data/hotels_by_city/Denver/Denver_shard_254.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_254.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g33329-d235490-Reviews-Super_8_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
@@ -139,6 +148,428 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r528175699-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33329</t>
+  </si>
+  <si>
+    <t>235490</t>
+  </si>
+  <si>
+    <t>528175699</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Dirty</t>
+  </si>
+  <si>
+    <t>I will not stay here again. It's dirty, stinks, the cigarette smell is very strong everywhere, even in what I thought was a non-smoking room. It needs a very deep cleaning, or torn down. The parking lot is dirt and mud puddles. Should have paid a bit more and stayed next door!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r526674410-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>526674410</t>
+  </si>
+  <si>
+    <t>09/22/2017</t>
+  </si>
+  <si>
+    <t>Nasty place</t>
+  </si>
+  <si>
+    <t>Lobby and hallways reeked of cigarette smoke.  The carpet was nasty, it actually felt wet when I took my shoes off.  I didn't want to touch the floor again.  There is a major road just east of the motel, and our room was close to the end, so it was very noisy with traffic.  I thought Super 8 was a decent moderately priced motel, but I was wrong!</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r511753118-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>511753118</t>
+  </si>
+  <si>
+    <t>08/12/2017</t>
+  </si>
+  <si>
+    <t>NO Surprises Here</t>
+  </si>
+  <si>
+    <t>This hotel sits separated from other chain hotels that are in close proximity.  We arrived after dark and the parking lot was hard packed dirt and  not really well lighted.  The main entrance to hotel is not readily identifiable and once inside the reception area was under impressive.  Behind the small window opening one could see stacks of boxes and it not only looked very cluttered but very unprofessional.  Our rooms were standard Super 8 and nothing to make them stand out as exceptional in any way.  The breakfast fare was equally unappetizing and the area to eat it in was also extremely small and not conducive to more than a couple sitting together. I have stayed at other Super 8 that were far superior to,this one.   We skipped the breakfast and went to the local StarBucks and had a breakfast sandwich in a cleaner less cluttered atmosphere.  This hotel works for a place to rest your head in a long haul truckers atmosphere.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This hotel sits separated from other chain hotels that are in close proximity.  We arrived after dark and the parking lot was hard packed dirt and  not really well lighted.  The main entrance to hotel is not readily identifiable and once inside the reception area was under impressive.  Behind the small window opening one could see stacks of boxes and it not only looked very cluttered but very unprofessional.  Our rooms were standard Super 8 and nothing to make them stand out as exceptional in any way.  The breakfast fare was equally unappetizing and the area to eat it in was also extremely small and not conducive to more than a couple sitting together. I have stayed at other Super 8 that were far superior to,this one.   We skipped the breakfast and went to the local StarBucks and had a breakfast sandwich in a cleaner less cluttered atmosphere.  This hotel works for a place to rest your head in a long haul truckers atmosphere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r497771126-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>497771126</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>Not a good place to stay</t>
+  </si>
+  <si>
+    <t>I asked for non smoking but they had only 1 room left &amp; it was a smoke infested smelly room. No other rooms were available in the area. It's a very dated place that needs a complete remodel or torn down.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r497211953-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>497211953</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Worst overnight stay ever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A/C was inop, provided a chipo fan.  Bed collapsed in the middle od the light. Rup was worn out and had a bad oder. The entire building dmelled like cigarettes. Breakfast ran out ny 730am. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r482945323-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>482945323</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>Wonderful staff</t>
+  </si>
+  <si>
+    <t>The staff was incredible very friendly and courteous professional say the least helped us in every way possible very clean very punctual and respecting our privacy. The owners of the facility or hands on at all times to ensure comfortable stay it's actually affordable .</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r408515941-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>408515941</t>
+  </si>
+  <si>
+    <t>08/21/2016</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r404998767-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>404998767</t>
+  </si>
+  <si>
+    <t>08/13/2016</t>
+  </si>
+  <si>
+    <t>Awful!!!</t>
+  </si>
+  <si>
+    <t>Negative 5 rating. Do NOT, I repeat do NOT stay at this hotel. Unprofessional staff, dirty rooms and dirty carpet. Place smelled bad. Headboard fell off the wall without us touching it. Gravel dusty parking lot. Staff was seldom at the front desk and too busy to help. No friendly smiles. We were charged for 2 nights, only stayed 1. And they said I had signed for 2. I know I did NOT sign for 2. We asked to speak to the manager John and he was out for 3 days yet. And supervisor Loretta was also "out". Found out there is no Loretta or John working there; just names to put you off. When I called at all hours of the day, "Loretta" was working other shift. Called in later shift and she was working at another time.  Crooked ppl, called corporate. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Negative 5 rating. Do NOT, I repeat do NOT stay at this hotel. Unprofessional staff, dirty rooms and dirty carpet. Place smelled bad. Headboard fell off the wall without us touching it. Gravel dusty parking lot. Staff was seldom at the front desk and too busy to help. No friendly smiles. We were charged for 2 nights, only stayed 1. And they said I had signed for 2. I know I did NOT sign for 2. We asked to speak to the manager John and he was out for 3 days yet. And supervisor Loretta was also "out". Found out there is no Loretta or John working there; just names to put you off. When I called at all hours of the day, "Loretta" was working other shift. Called in later shift and she was working at another time.  Crooked ppl, called corporate. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r403924693-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>403924693</t>
+  </si>
+  <si>
+    <t>08/10/2016</t>
+  </si>
+  <si>
+    <t>not satisfied.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The rooms and hallway smelled like cigarettes, the carpets did not seem clean,  there were no pillowcases on the pillows. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r353608522-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>353608522</t>
+  </si>
+  <si>
+    <t>03/07/2016</t>
+  </si>
+  <si>
+    <t>Terrible</t>
+  </si>
+  <si>
+    <t>Charged us $10 more than a regular 2 bed room, saying it was a Suite. It was actually a handicapped room. Beds and pillows were hard. Small, old fashioned TV. Patch job in bathroom sloppy. No pot in the coffee maker. At 8:30 am, only sweet rolls left to eat at breakfast. Workers at 3 am. talking and pushing what sounded like metal carts down the hall. Disappointed. Old building, needs quality refurbishing.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r349710687-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>349710687</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r324005735-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>324005735</t>
+  </si>
+  <si>
+    <t>11/02/2015</t>
+  </si>
+  <si>
+    <t>motel 8 with extera fee's</t>
+  </si>
+  <si>
+    <t>The service at check in  was outstanding freindly staff  but the extra fee of $20.00 buck's was only stated to me after all was signed in and told that it was given back in morning and the room was clean and things where ok in morning the free breakfast was unstocked and asked for things was told that if it's out it's  out they would not restock the item's once gone and up on check out never was given back the deposit was told by morning check out staff  that i check in with out paying the deposit and it was noted that i never paid it so for the room price that was said to be $67.00 buck's ended up costing $87.00 buck's and that is just rude to pay for the service that was a shade and kinda rude and make a motel 8 chain look  like a place never to stay unless you like to get crap breakfast  and shade price and service MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>The service at check in  was outstanding freindly staff  but the extra fee of $20.00 buck's was only stated to me after all was signed in and told that it was given back in morning and the room was clean and things where ok in morning the free breakfast was unstocked and asked for things was told that if it's out it's  out they would not restock the item's once gone and up on check out never was given back the deposit was told by morning check out staff  that i check in with out paying the deposit and it was noted that i never paid it so for the room price that was said to be $67.00 buck's ended up costing $87.00 buck's and that is just rude to pay for the service that was a shade and kinda rude and make a motel 8 chain look  like a place never to stay unless you like to get crap breakfast  and shade price and service More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r308434297-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>308434297</t>
+  </si>
+  <si>
+    <t>09/09/2015</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r297543571-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>297543571</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>Room not clear or functional</t>
+  </si>
+  <si>
+    <t>Hello,
+I have stayed in Super8 before with satisfactory experiences, and while I don't expect "frills," I do expect a clean and functioning room.  Several issues:
+1. The room had a water problem of unknown source.  The humidity in the room was very high.  The sheets felt wet, and when I put my clothes on in the morning my clothes felt wet.  
+2.  The room was "non-smoking" but had a sense of a smoking odor, and an overwhelming smell of citrus deodorizer.  The citrus was so strong it almost burned your eyes.  Definitely trying to cover something up.
+3.  The mechanism for closing the drain on the tub did not work.  So my 5 year-old was unable to take a bath.  He does not yet take showers.  The front office also did not have a plug that could be used in place of the standard mechanical mechanism.  
+4.  The TV did not work.  
+5.  The manager was not in when I checked out at 9:15am.  The manager was supposed to contact me about a partial refund.  I did not receive any communication by either telephone or email.
+Of note, I made this reservation in the expectation of a late arrival.  When we arrived at midnight we were so tired I did not have the energy or ability (with two children) to obtain a refund to allow me to switch to another motel.  There were no other rooms available within the...Hello,I have stayed in Super8 before with satisfactory experiences, and while I don't expect "frills," I do expect a clean and functioning room.  Several issues:1. The room had a water problem of unknown source.  The humidity in the room was very high.  The sheets felt wet, and when I put my clothes on in the morning my clothes felt wet.  2.  The room was "non-smoking" but had a sense of a smoking odor, and an overwhelming smell of citrus deodorizer.  The citrus was so strong it almost burned your eyes.  Definitely trying to cover something up.3.  The mechanism for closing the drain on the tub did not work.  So my 5 year-old was unable to take a bath.  He does not yet take showers.  The front office also did not have a plug that could be used in place of the standard mechanical mechanism.  4.  The TV did not work.  5.  The manager was not in when I checked out at 9:15am.  The manager was supposed to contact me about a partial refund.  I did not receive any communication by either telephone or email.Of note, I made this reservation in the expectation of a late arrival.  When we arrived at midnight we were so tired I did not have the energy or ability (with two children) to obtain a refund to allow me to switch to another motel.  There were no other rooms available within the Super 8.As stated at the top of the comments, I don't have any expectations of "frills" with Super 8, but I do expect a clean and functioning room.  This was clearly not the case on this trip.  I also did not receive the expected value for my money.  It is probably safe to say that this was the worst hotel/motel room experience that I have ever had.Sincerely,MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Hello,
+I have stayed in Super8 before with satisfactory experiences, and while I don't expect "frills," I do expect a clean and functioning room.  Several issues:
+1. The room had a water problem of unknown source.  The humidity in the room was very high.  The sheets felt wet, and when I put my clothes on in the morning my clothes felt wet.  
+2.  The room was "non-smoking" but had a sense of a smoking odor, and an overwhelming smell of citrus deodorizer.  The citrus was so strong it almost burned your eyes.  Definitely trying to cover something up.
+3.  The mechanism for closing the drain on the tub did not work.  So my 5 year-old was unable to take a bath.  He does not yet take showers.  The front office also did not have a plug that could be used in place of the standard mechanical mechanism.  
+4.  The TV did not work.  
+5.  The manager was not in when I checked out at 9:15am.  The manager was supposed to contact me about a partial refund.  I did not receive any communication by either telephone or email.
+Of note, I made this reservation in the expectation of a late arrival.  When we arrived at midnight we were so tired I did not have the energy or ability (with two children) to obtain a refund to allow me to switch to another motel.  There were no other rooms available within the...Hello,I have stayed in Super8 before with satisfactory experiences, and while I don't expect "frills," I do expect a clean and functioning room.  Several issues:1. The room had a water problem of unknown source.  The humidity in the room was very high.  The sheets felt wet, and when I put my clothes on in the morning my clothes felt wet.  2.  The room was "non-smoking" but had a sense of a smoking odor, and an overwhelming smell of citrus deodorizer.  The citrus was so strong it almost burned your eyes.  Definitely trying to cover something up.3.  The mechanism for closing the drain on the tub did not work.  So my 5 year-old was unable to take a bath.  He does not yet take showers.  The front office also did not have a plug that could be used in place of the standard mechanical mechanism.  4.  The TV did not work.  5.  The manager was not in when I checked out at 9:15am.  The manager was supposed to contact me about a partial refund.  I did not receive any communication by either telephone or email.Of note, I made this reservation in the expectation of a late arrival.  When we arrived at midnight we were so tired I did not have the energy or ability (with two children) to obtain a refund to allow me to switch to another motel.  There were no other rooms available within the Super 8.As stated at the top of the comments, I don't have any expectations of "frills" with Super 8, but I do expect a clean and functioning room.  This was clearly not the case on this trip.  I also did not receive the expected value for my money.  It is probably safe to say that this was the worst hotel/motel room experience that I have ever had.Sincerely,More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r285172030-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>285172030</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r229090669-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>229090669</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r221691391-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>221691391</t>
+  </si>
+  <si>
+    <t>08/13/2014</t>
+  </si>
+  <si>
+    <t>Super Dump</t>
+  </si>
+  <si>
+    <t>There were holes in the parking lot, slob stains all over the pillows. They would not provide new ones, the tub and surrounding walls look like they are not cleaned on a regular basis. The carpet was  badly stained, and the remote for the tv did not work. It looks as if housekeeping comes in lays down, and spread up the bed before they go- and not even do a good job at that. I could not get out fast enough. Oh yeah, an the wifi was not working.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r220119626-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>220119626</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r204323055-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>204323055</t>
+  </si>
+  <si>
+    <t>05/06/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r198695168-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>198695168</t>
+  </si>
+  <si>
+    <t>03/25/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r178748340-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>178748340</t>
+  </si>
+  <si>
+    <t>09/26/2013</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Stayed one night in this place and found no issue with the room and service.Plenty of parking space, room was clean and staff was very friendly.Liked the breakfast and location of the place.Next time in this area, I will stay again and recomend to others as well.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r142435597-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>142435597</t>
+  </si>
+  <si>
+    <t>10/09/2012</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r121292290-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>121292290</t>
+  </si>
+  <si>
+    <t>12/01/2011</t>
+  </si>
+  <si>
+    <t>bad motel</t>
+  </si>
+  <si>
+    <t>this hotel is not a good choice. I was traveling late and was the only place to go. Wish i had kept going. The sheets on the bed were totally threadbare. The windows were dirty. The toilet was loose and wobbled on the floor. The area around the hotel seemed a bit scary.Breakfast was about non existent.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r27715111-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>27715111</t>
+  </si>
+  <si>
+    <t>04/09/2009</t>
+  </si>
+  <si>
+    <t>Should have slept in my rental car</t>
+  </si>
+  <si>
+    <t>This is an easy review to write. I have NOTHING good to say. I booked this over the internet site unseen. Brighton is a sketchy area to begin with, wish I had known that. This hotel was totally disgusting. It stunk and the level of fith was so extreme that its almost funny, if you dont have to sleep there. My brother and I both got super itchy about an hour after getting in bed. 2 hours into the ordeal my brother became so stuffed up he was blowing his nose every 2 mins. Good thing Walmart is close because we had to go there to buy sandles to shower in. The washroom was horrifying. I mean it when I say I should have slept in my car.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is an easy review to write. I have NOTHING good to say. I booked this over the internet site unseen. Brighton is a sketchy area to begin with, wish I had known that. This hotel was totally disgusting. It stunk and the level of fith was so extreme that its almost funny, if you dont have to sleep there. My brother and I both got super itchy about an hour after getting in bed. 2 hours into the ordeal my brother became so stuffed up he was blowing his nose every 2 mins. Good thing Walmart is close because we had to go there to buy sandles to shower in. The washroom was horrifying. I mean it when I say I should have slept in my car.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +963,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +995,1605 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
+        <v>58</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>97</v>
+      </c>
+      <c r="O9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" t="s">
+        <v>79</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>79</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>58</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>136</v>
+      </c>
+      <c r="O16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>140</v>
+      </c>
+      <c r="O17" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>146</v>
+      </c>
+      <c r="O18" t="s">
+        <v>58</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>148</v>
+      </c>
+      <c r="J19" t="s">
+        <v>149</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s"/>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>146</v>
+      </c>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>153</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>154</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>157</v>
+      </c>
+      <c r="O21" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>158</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>159</v>
+      </c>
+      <c r="J22" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" t="s">
+        <v>161</v>
+      </c>
+      <c r="L22" t="s">
+        <v>162</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>163</v>
+      </c>
+      <c r="O22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>165</v>
+      </c>
+      <c r="J23" t="s">
+        <v>166</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>167</v>
+      </c>
+      <c r="O23" t="s">
+        <v>58</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>169</v>
+      </c>
+      <c r="J24" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" t="s">
+        <v>172</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>173</v>
+      </c>
+      <c r="O24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25" t="s">
+        <v>176</v>
+      </c>
+      <c r="K25" t="s">
+        <v>177</v>
+      </c>
+      <c r="L25" t="s">
+        <v>178</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_254.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_254.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="258">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/05/2018</t>
+    <t>09/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r587061564-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>33329</t>
+  </si>
+  <si>
+    <t>235490</t>
+  </si>
+  <si>
+    <t>587061564</t>
+  </si>
+  <si>
+    <t>06/12/2018</t>
+  </si>
+  <si>
+    <t>Never stay here</t>
+  </si>
+  <si>
+    <t>This hotel is really sketchy and the housekeeping staff steals from the guest all the time. Very rude and hostile management when confronted. Rooms were nasty and stunk of cigarettes in a non smoking room. Never stay here they need to be shutdown</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r562144651-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>562144651</t>
+  </si>
+  <si>
+    <t>02/22/2018</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>Entire place smelled of cigarettes.  Bathroom tub was dirty and didn't drain.  Main door looked like someone punched it and no one bothered to fix. Was supposed to stay 4 days stayed one.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r528175699-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
-    <t>33329</t>
-  </si>
-  <si>
-    <t>235490</t>
-  </si>
-  <si>
     <t>528175699</t>
   </si>
   <si>
@@ -192,9 +234,6 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r511753118-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -219,6 +258,42 @@
     <t>This hotel sits separated from other chain hotels that are in close proximity.  We arrived after dark and the parking lot was hard packed dirt and  not really well lighted.  The main entrance to hotel is not readily identifiable and once inside the reception area was under impressive.  Behind the small window opening one could see stacks of boxes and it not only looked very cluttered but very unprofessional.  Our rooms were standard Super 8 and nothing to make them stand out as exceptional in any way.  The breakfast fare was equally unappetizing and the area to eat it in was also extremely small and not conducive to more than a couple sitting together. I have stayed at other Super 8 that were far superior to,this one.   We skipped the breakfast and went to the local StarBucks and had a breakfast sandwich in a cleaner less cluttered atmosphere.  This hotel works for a place to rest your head in a long haul truckers atmosphere.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r504631851-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>504631851</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>The  forgotten 8</t>
+  </si>
+  <si>
+    <t>It sits at the end of a street that has four of the majors in front of it. No pool. Needs asphalt to be resurfaced all the way around the building. It by far beats the others for price(88.04 vs 169.99 Best Western) When you don't have the amenities you can't charge the big rate. Breakfast is continental, though today there was no cinnamon rolls. The staff is really quite friendly and helpful. Had all the stuff to make coffee, just no pot. The desk lady swiped one from a different room. Room was clean, just old. The whole place needs a remodel, but it's like the folks that run super 8 don't know it's there and don't really care, just keep collecting the money.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>It sits at the end of a street that has four of the majors in front of it. No pool. Needs asphalt to be resurfaced all the way around the building. It by far beats the others for price(88.04 vs 169.99 Best Western) When you don't have the amenities you can't charge the big rate. Breakfast is continental, though today there was no cinnamon rolls. The staff is really quite friendly and helpful. Had all the stuff to make coffee, just no pot. The desk lady swiped one from a different room. Room was clean, just old. The whole place needs a remodel, but it's like the folks that run super 8 don't know it's there and don't really care, just keep collecting the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r499616081-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>499616081</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Clean, fridge and microwave</t>
+  </si>
+  <si>
+    <t>This place was clean enough. Front desk people were nice. Air conditioner was a little hard to adjust but that's because outs got in the day and was cooler at night. If your a worker there on it was just fine. Rocky Mountain National Park is a short drive away to see some beautiful sights! Safe place near interstate.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r497771126-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -255,9 +330,6 @@
     <t xml:space="preserve">A/C was inop, provided a chipo fan.  Bed collapsed in the middle od the light. Rup was worn out and had a bad oder. The entire building dmelled like cigarettes. Breakfast ran out ny 730am. </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r482945323-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -276,6 +348,30 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r450834722-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>450834722</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r434007753-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>434007753</t>
+  </si>
+  <si>
+    <t>11/02/2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r408515941-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -312,9 +408,6 @@
     <t>July 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Negative 5 rating. Do NOT, I repeat do NOT stay at this hotel. Unprofessional staff, dirty rooms and dirty carpet. Place smelled bad. Headboard fell off the wall without us touching it. Gravel dusty parking lot. Staff was seldom at the front desk and too busy to help. No friendly smiles. We were charged for 2 nights, only stayed 1. And they said I had signed for 2. I know I did NOT sign for 2. We asked to speak to the manager John and he was out for 3 days yet. And supervisor Loretta was also "out". Found out there is no Loretta or John working there; just names to put you off. When I called at all hours of the day, "Loretta" was working other shift. Called in later shift and she was working at another time.  Crooked ppl, called corporate. More</t>
   </si>
   <si>
@@ -333,6 +426,33 @@
     <t xml:space="preserve">The rooms and hallway smelled like cigarettes, the carpets did not seem clean,  there were no pillowcases on the pillows. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r395221335-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>395221335</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r355054850-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>355054850</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Dirty dirty dirty</t>
+  </si>
+  <si>
+    <t>The shower was covered in hair and general cleanliness was poor.  The vanity had cigarette burns all over it in a room that was supposed to be non-smoking.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r353608522-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -348,9 +468,6 @@
     <t>Charged us $10 more than a regular 2 bed room, saying it was a Suite. It was actually a handicapped room. Beds and pillows were hard. Small, old fashioned TV. Patch job in bathroom sloppy. No pot in the coffee maker. At 8:30 am, only sweet rolls left to eat at breakfast. Workers at 3 am. talking and pushing what sounded like metal carts down the hall. Disappointed. Old building, needs quality refurbishing.</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r349710687-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -382,6 +499,39 @@
   </si>
   <si>
     <t>The service at check in  was outstanding freindly staff  but the extra fee of $20.00 buck's was only stated to me after all was signed in and told that it was given back in morning and the room was clean and things where ok in morning the free breakfast was unstocked and asked for things was told that if it's out it's  out they would not restock the item's once gone and up on check out never was given back the deposit was told by morning check out staff  that i check in with out paying the deposit and it was noted that i never paid it so for the room price that was said to be $67.00 buck's ended up costing $87.00 buck's and that is just rude to pay for the service that was a shade and kinda rude and make a motel 8 chain look  like a place never to stay unless you like to get crap breakfast  and shade price and service More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r322214157-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>322214157</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>Rocky Mountain Feather Fanciers Show</t>
+  </si>
+  <si>
+    <t>Excellent front staff. Coffee was ready early. Breakfast choice was exceptional. Room clean with good bed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r320432921-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>320432921</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>A very welcome waystop</t>
+  </si>
+  <si>
+    <t>This Super-8 was a welcome oasis on the return drive from Detroit.  These Super-8's to my surprise are oftentimes quite nice.  All we look for when driving cross-county, is frugal, functional, and most importantly clean.  I'm pleased to report that the Super-8 Brighton fit our requirements.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r308434297-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
@@ -440,7 +590,34 @@
     <t>07/02/2015</t>
   </si>
   <si>
-    <t>June 2015</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r263868735-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>263868735</t>
+  </si>
+  <si>
+    <t>04/05/2015</t>
+  </si>
+  <si>
+    <t>Good Experience! !!</t>
+  </si>
+  <si>
+    <t>Very clean and staff was very polite. Check in early a.m. The older lady that check us was a sweetheart! !?</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r260282269-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>260282269</t>
+  </si>
+  <si>
+    <t>03/18/2015</t>
+  </si>
+  <si>
+    <t>March 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r229090669-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
@@ -482,6 +659,36 @@
     <t>08/06/2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r211913931-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>211913931</t>
+  </si>
+  <si>
+    <t>06/24/2014</t>
+  </si>
+  <si>
+    <t>Stayed 1 night paid $55.00 total discounted rate</t>
+  </si>
+  <si>
+    <t>Good location with lots of other hotels..Lots of fast food places and Walmart across the freeway..Breakfast was the usual so don't expect alot..Management was good no problems..I paid a discounted rate for a handicap room because it wasn't clean and needed carpet.Parking is good for big trucks and RV campers..If your heading north on 85 you can expect to pay more for a room about $100.00 in Greeley,CO..Only other cheap hotel will be Motel-6 up the road on northside of 85..There was a smoker in the room next to me and it went thru the wall into my room..</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r205207471-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>205207471</t>
+  </si>
+  <si>
+    <t>05/12/2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r204323055-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -491,9 +698,6 @@
     <t>05/06/2014</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r198695168-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
   </si>
   <si>
@@ -522,6 +726,36 @@
   </si>
   <si>
     <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r145692072-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>145692072</t>
+  </si>
+  <si>
+    <t>11/18/2012</t>
+  </si>
+  <si>
+    <t>Easy Access to DIA</t>
+  </si>
+  <si>
+    <t>The reason for staying at this particular hotel was the short distance to DIA and the price of the room.  I left before the breakfact was served.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r142654620-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
+  </si>
+  <si>
+    <t>142654620</t>
+  </si>
+  <si>
+    <t>10/12/2012</t>
+  </si>
+  <si>
+    <t>September 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33329-d235490-r142435597-Super_8_by_Wyndham_Brighton-Brighton_Colorado.html</t>
@@ -1106,8 +1340,12 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1136,7 +1374,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1145,41 +1383,41 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
       </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1187,7 +1425,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -1203,7 +1441,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1212,49 +1450,35 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1270,50 +1494,50 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>67</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>68</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>69</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>70</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>71</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
         <v>1</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1321,7 +1545,7 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1337,46 +1561,46 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" t="s">
         <v>74</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>75</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" t="s">
         <v>76</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>78</v>
       </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>72</v>
-      </c>
-      <c r="O6" t="s">
-        <v>79</v>
-      </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
@@ -1388,7 +1612,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -1425,29 +1649,23 @@
         <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
+        <v>77</v>
+      </c>
+      <c r="O7" t="s">
         <v>85</v>
       </c>
-      <c r="O7" t="s">
-        <v>79</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
       <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1455,7 +1673,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -1471,7 +1689,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1480,40 +1698,32 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" t="s"/>
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="O8" t="s">
-        <v>58</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>3</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>3</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -1565,19 +1775,29 @@
       <c r="O9" t="s">
         <v>98</v>
       </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
@@ -1593,50 +1813,50 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
         <v>100</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>101</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>102</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>103</v>
       </c>
-      <c r="L10" t="s">
-        <v>104</v>
-      </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
         <v>97</v>
       </c>
       <c r="O10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
         <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1644,7 +1864,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11">
@@ -1660,50 +1880,50 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
         <v>105</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>106</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>107</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>108</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>109</v>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>110</v>
-      </c>
       <c r="O11" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1711,7 +1931,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
@@ -1727,19 +1947,19 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
         <v>111</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>112</v>
-      </c>
-      <c r="J12" t="s">
-        <v>113</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -1747,26 +1967,26 @@
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
         <v>5</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1788,59 +2008,53 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
         <v>115</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>116</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
         <v>117</v>
       </c>
-      <c r="K13" t="s">
-        <v>118</v>
-      </c>
-      <c r="L13" t="s">
-        <v>119</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>120</v>
-      </c>
       <c r="O13" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
         <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
-      <c r="Y13" t="s">
-        <v>121</v>
-      </c>
+      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1855,42 +2069,44 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>120</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
         <v>122</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J14" t="s">
-        <v>124</v>
-      </c>
-      <c r="K14" t="s"/>
-      <c r="L14" t="s"/>
-      <c r="M14" t="n">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>125</v>
-      </c>
       <c r="O14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -1901,7 +2117,9 @@
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
-      <c r="Y14" t="s"/>
+      <c r="Y14" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1916,58 +2134,48 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J15" t="s">
         <v>126</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>127</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>128</v>
       </c>
-      <c r="K15" t="s">
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
         <v>129</v>
       </c>
-      <c r="L15" t="s">
-        <v>130</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>131</v>
-      </c>
       <c r="O15" t="s">
-        <v>58</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>2</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
@@ -1983,53 +2191,59 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
+        <v>131</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" t="s">
         <v>133</v>
       </c>
-      <c r="G16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>134</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>135</v>
       </c>
-      <c r="K16" t="s"/>
-      <c r="L16" t="s"/>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O16" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
         <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
-      <c r="Y16" t="s"/>
+      <c r="Y16" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -2044,46 +2258,46 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
         <v>137</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>138</v>
-      </c>
-      <c r="J17" t="s">
-        <v>139</v>
       </c>
       <c r="K17" t="s"/>
       <c r="L17" t="s"/>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="O17" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="P17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>3</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2105,46 +2319,50 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" t="s">
         <v>141</v>
       </c>
-      <c r="G18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>142</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>143</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
         <v>144</v>
       </c>
-      <c r="L18" t="s">
-        <v>145</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>146</v>
-      </c>
       <c r="O18" t="s">
-        <v>58</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
       <c r="S18" t="n">
         <v>1</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2152,7 +2370,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
@@ -2168,53 +2386,59 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" t="s">
         <v>147</v>
       </c>
-      <c r="G19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>148</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>149</v>
       </c>
-      <c r="K19" t="s"/>
-      <c r="L19" t="s"/>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O19" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
-      <c r="Y19" t="s"/>
+      <c r="Y19" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -2252,23 +2476,23 @@
         <v>153</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
         <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2304,39 +2528,45 @@
       <c r="J21" t="s">
         <v>156</v>
       </c>
-      <c r="K21" t="s"/>
-      <c r="L21" t="s"/>
+      <c r="K21" t="s">
+        <v>157</v>
+      </c>
+      <c r="L21" t="s">
+        <v>158</v>
+      </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O21" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R21" t="n">
         <v>5</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
-      <c r="Y21" t="s"/>
+      <c r="Y21" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -2351,7 +2581,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2360,41 +2590,41 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" t="s">
+        <v>163</v>
+      </c>
+      <c r="K22" t="s">
+        <v>164</v>
+      </c>
+      <c r="L22" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
         <v>159</v>
       </c>
-      <c r="J22" t="s">
-        <v>160</v>
-      </c>
-      <c r="K22" t="s">
-        <v>161</v>
-      </c>
-      <c r="L22" t="s">
-        <v>162</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>163</v>
-      </c>
       <c r="O22" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q22" t="n">
         <v>4</v>
       </c>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S22" t="n">
         <v>4</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2402,7 +2632,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23">
@@ -2418,7 +2648,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2427,44 +2657,44 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J23" t="s">
-        <v>166</v>
-      </c>
-      <c r="K23" t="s"/>
-      <c r="L23" t="s"/>
+        <v>168</v>
+      </c>
+      <c r="K23" t="s">
+        <v>169</v>
+      </c>
+      <c r="L23" t="s">
+        <v>170</v>
+      </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O23" t="s">
-        <v>58</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
       <c r="R23" t="n">
         <v>5</v>
       </c>
-      <c r="S23" t="n">
-        <v>3</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
-      <c r="Y23" t="s"/>
+      <c r="Y23" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -2479,7 +2709,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -2488,37 +2718,33 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="J24" t="s">
-        <v>170</v>
-      </c>
-      <c r="K24" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24" t="s">
-        <v>172</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s"/>
       <c r="M24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O24" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="P24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
         <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
@@ -2529,9 +2755,7 @@
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
-      <c r="Y24" t="s">
-        <v>172</v>
-      </c>
+      <c r="Y24" t="s"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -2546,7 +2770,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -2555,22 +2779,26 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K25" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
+      <c r="N25" t="s">
+        <v>181</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
       <c r="P25" t="n">
         <v>1</v>
       </c>
@@ -2585,7 +2813,7 @@
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2593,7 +2821,1021 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>184</v>
+      </c>
+      <c r="J26" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" t="s"/>
+      <c r="L26" t="s"/>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>171</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" t="s">
+        <v>188</v>
+      </c>
+      <c r="K27" t="s">
+        <v>189</v>
+      </c>
+      <c r="L27" t="s">
+        <v>190</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>191</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>193</v>
+      </c>
+      <c r="J28" t="s">
+        <v>194</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>4</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>197</v>
+      </c>
+      <c r="J29" t="s">
+        <v>198</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>199</v>
+      </c>
+      <c r="O29" t="s">
+        <v>85</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>200</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>201</v>
+      </c>
+      <c r="J30" t="s">
+        <v>202</v>
+      </c>
+      <c r="K30" t="s">
+        <v>203</v>
+      </c>
+      <c r="L30" t="s">
+        <v>204</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>205</v>
+      </c>
+      <c r="O30" t="s">
+        <v>60</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>206</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>207</v>
+      </c>
+      <c r="J31" t="s">
+        <v>208</v>
+      </c>
+      <c r="K31" t="s"/>
+      <c r="L31" t="s"/>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>205</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>209</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>210</v>
+      </c>
+      <c r="J32" t="s">
+        <v>211</v>
+      </c>
+      <c r="K32" t="s">
+        <v>212</v>
+      </c>
+      <c r="L32" t="s">
+        <v>213</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>214</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>215</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>216</v>
+      </c>
+      <c r="J33" t="s">
+        <v>217</v>
+      </c>
+      <c r="K33" t="s"/>
+      <c r="L33" t="s"/>
+      <c r="M33" t="n">
+        <v>2</v>
+      </c>
+      <c r="N33" t="s">
+        <v>218</v>
+      </c>
+      <c r="O33" t="s">
+        <v>85</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>219</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>220</v>
+      </c>
+      <c r="J34" t="s">
+        <v>221</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>218</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>3</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>222</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>223</v>
+      </c>
+      <c r="J35" t="s">
+        <v>224</v>
+      </c>
+      <c r="K35" t="s"/>
+      <c r="L35" t="s"/>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>225</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>226</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>227</v>
+      </c>
+      <c r="J36" t="s">
+        <v>228</v>
+      </c>
+      <c r="K36" t="s">
+        <v>229</v>
+      </c>
+      <c r="L36" t="s">
+        <v>230</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>231</v>
+      </c>
+      <c r="O36" t="s">
+        <v>98</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>232</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>233</v>
+      </c>
+      <c r="J37" t="s">
+        <v>234</v>
+      </c>
+      <c r="K37" t="s">
+        <v>235</v>
+      </c>
+      <c r="L37" t="s">
+        <v>236</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>237</v>
+      </c>
+      <c r="O37" t="s">
+        <v>98</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>238</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>239</v>
+      </c>
+      <c r="J38" t="s">
+        <v>240</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s">
+        <v>121</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s">
+        <v>241</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>2</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>242</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>243</v>
+      </c>
+      <c r="J39" t="s">
+        <v>244</v>
+      </c>
+      <c r="K39" t="s"/>
+      <c r="L39" t="s"/>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s">
+        <v>245</v>
+      </c>
+      <c r="O39" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>246</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>247</v>
+      </c>
+      <c r="J40" t="s">
+        <v>248</v>
+      </c>
+      <c r="K40" t="s">
+        <v>249</v>
+      </c>
+      <c r="L40" t="s">
+        <v>250</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>251</v>
+      </c>
+      <c r="O40" t="s">
+        <v>85</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>8573</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>252</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>253</v>
+      </c>
+      <c r="J41" t="s">
+        <v>254</v>
+      </c>
+      <c r="K41" t="s">
+        <v>255</v>
+      </c>
+      <c r="L41" t="s">
+        <v>256</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
